--- a/Daily Attandance record/Upto 15 may/April_May/16 April.xlsx
+++ b/Daily Attandance record/Upto 15 may/April_May/16 April.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Daily Attandance record\April_May\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Daily Attandance record\Upto 15 may\April_May\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14A7DAD-27C2-4ACA-A605-94A169385AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C134D92-349A-4471-AAAF-8B00019274FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6021,11 +6021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C6F21F-5289-4DA5-95FE-355C3CBB6912}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:E275"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J235" sqref="J235"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6037,7 +6036,7 @@
     <col min="5" max="5" width="9.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>232</v>
       </c>
@@ -6054,7 +6053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>233</v>
       </c>
@@ -6071,7 +6070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>235</v>
       </c>
@@ -6088,7 +6087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>236</v>
       </c>
@@ -6105,7 +6104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>237</v>
       </c>
@@ -6122,7 +6121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>238</v>
       </c>
@@ -6139,7 +6138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>240</v>
       </c>
@@ -6156,7 +6155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>242</v>
       </c>
@@ -6173,7 +6172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>243</v>
       </c>
@@ -6190,7 +6189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>244</v>
       </c>
@@ -6207,7 +6206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>245</v>
       </c>
@@ -6224,7 +6223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>246</v>
       </c>
@@ -6241,7 +6240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>248</v>
       </c>
@@ -6258,7 +6257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>249</v>
       </c>
@@ -6275,7 +6274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>250</v>
       </c>
@@ -6292,7 +6291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>251</v>
       </c>
@@ -6309,7 +6308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>252</v>
       </c>
@@ -6326,7 +6325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>253</v>
       </c>
@@ -6343,7 +6342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>254</v>
       </c>
@@ -6360,7 +6359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>255</v>
       </c>
@@ -6377,7 +6376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>256</v>
       </c>
@@ -6394,7 +6393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>257</v>
       </c>
@@ -6411,7 +6410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>258</v>
       </c>
@@ -6428,7 +6427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>259</v>
       </c>
@@ -6445,7 +6444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>260</v>
       </c>
@@ -6462,7 +6461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>261</v>
       </c>
@@ -6479,7 +6478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>262</v>
       </c>
@@ -6496,7 +6495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>263</v>
       </c>
@@ -6513,7 +6512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>264</v>
       </c>
@@ -6530,7 +6529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>265</v>
       </c>
@@ -6547,7 +6546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>266</v>
       </c>
@@ -6564,7 +6563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>267</v>
       </c>
@@ -6581,7 +6580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>268</v>
       </c>
@@ -6598,7 +6597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>269</v>
       </c>
@@ -6615,7 +6614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>270</v>
       </c>
@@ -6632,7 +6631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>271</v>
       </c>
@@ -6649,7 +6648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>272</v>
       </c>
@@ -6666,7 +6665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>273</v>
       </c>
@@ -6683,7 +6682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>274</v>
       </c>
@@ -6700,7 +6699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>275</v>
       </c>
@@ -6717,7 +6716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>276</v>
       </c>
@@ -6734,7 +6733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>277</v>
       </c>
@@ -6751,7 +6750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>278</v>
       </c>
@@ -6768,7 +6767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>279</v>
       </c>
@@ -6785,7 +6784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>280</v>
       </c>
@@ -6802,7 +6801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>281</v>
       </c>
@@ -6819,7 +6818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>282</v>
       </c>
@@ -6836,7 +6835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>283</v>
       </c>
@@ -6853,7 +6852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>284</v>
       </c>
@@ -6870,7 +6869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>285</v>
       </c>
@@ -6887,7 +6886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>286</v>
       </c>
@@ -6904,7 +6903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>287</v>
       </c>
@@ -6921,7 +6920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>288</v>
       </c>
@@ -6938,7 +6937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>289</v>
       </c>
@@ -6955,7 +6954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>290</v>
       </c>
@@ -6972,7 +6971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>291</v>
       </c>
@@ -6989,7 +6988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>292</v>
       </c>
@@ -7006,7 +7005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>293</v>
       </c>
@@ -7023,7 +7022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>294</v>
       </c>
@@ -7040,7 +7039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>295</v>
       </c>
@@ -7057,7 +7056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>296</v>
       </c>
@@ -7074,7 +7073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>297</v>
       </c>
@@ -7091,7 +7090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>298</v>
       </c>
@@ -7108,7 +7107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>299</v>
       </c>
@@ -7125,7 +7124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>300</v>
       </c>
@@ -7142,7 +7141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>301</v>
       </c>
@@ -7159,7 +7158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>302</v>
       </c>
@@ -7176,7 +7175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>303</v>
       </c>
@@ -7193,7 +7192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>304</v>
       </c>
@@ -7210,7 +7209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>305</v>
       </c>
@@ -7227,7 +7226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>306</v>
       </c>
@@ -7244,7 +7243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>307</v>
       </c>
@@ -7261,7 +7260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>308</v>
       </c>
@@ -7278,7 +7277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>309</v>
       </c>
@@ -7295,7 +7294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>310</v>
       </c>
@@ -7312,7 +7311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>311</v>
       </c>
@@ -7329,7 +7328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>312</v>
       </c>
@@ -7346,7 +7345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>313</v>
       </c>
@@ -7363,7 +7362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>314</v>
       </c>
@@ -7380,7 +7379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>315</v>
       </c>
@@ -7397,7 +7396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>316</v>
       </c>
@@ -7414,7 +7413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>317</v>
       </c>
@@ -7431,7 +7430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>318</v>
       </c>
@@ -7448,7 +7447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>319</v>
       </c>
@@ -7465,7 +7464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>320</v>
       </c>
@@ -7482,7 +7481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>321</v>
       </c>
@@ -7499,7 +7498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>322</v>
       </c>
@@ -7516,7 +7515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>323</v>
       </c>
@@ -7533,7 +7532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>324</v>
       </c>
@@ -7550,7 +7549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>325</v>
       </c>
@@ -7567,7 +7566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>326</v>
       </c>
@@ -7584,7 +7583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>327</v>
       </c>
@@ -7601,7 +7600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>328</v>
       </c>
@@ -7618,7 +7617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>329</v>
       </c>
@@ -7635,7 +7634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>330</v>
       </c>
@@ -7652,7 +7651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>331</v>
       </c>
@@ -7669,7 +7668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>332</v>
       </c>
@@ -7686,7 +7685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>333</v>
       </c>
@@ -7703,7 +7702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>334</v>
       </c>
@@ -7737,7 +7736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>336</v>
       </c>
@@ -7754,7 +7753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>337</v>
       </c>
@@ -7771,7 +7770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>338</v>
       </c>
@@ -7788,7 +7787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>339</v>
       </c>
@@ -7805,7 +7804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>340</v>
       </c>
@@ -7822,7 +7821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>341</v>
       </c>
@@ -7839,7 +7838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>342</v>
       </c>
@@ -7856,7 +7855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>343</v>
       </c>
@@ -7873,7 +7872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>344</v>
       </c>
@@ -7890,7 +7889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>346</v>
       </c>
@@ -7907,7 +7906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>347</v>
       </c>
@@ -7924,7 +7923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>348</v>
       </c>
@@ -7941,7 +7940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>349</v>
       </c>
@@ -7958,7 +7957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>350</v>
       </c>
@@ -7975,7 +7974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>351</v>
       </c>
@@ -7992,7 +7991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>352</v>
       </c>
@@ -8009,7 +8008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>353</v>
       </c>
@@ -8026,7 +8025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>354</v>
       </c>
@@ -8043,7 +8042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>355</v>
       </c>
@@ -8060,7 +8059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>356</v>
       </c>
@@ -8077,7 +8076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>357</v>
       </c>
@@ -8094,7 +8093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>358</v>
       </c>
@@ -8111,7 +8110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>359</v>
       </c>
@@ -8128,7 +8127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>360</v>
       </c>
@@ -8145,7 +8144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>361</v>
       </c>
@@ -8162,7 +8161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>362</v>
       </c>
@@ -8179,7 +8178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>363</v>
       </c>
@@ -8196,7 +8195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>364</v>
       </c>
@@ -8213,7 +8212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>365</v>
       </c>
@@ -8230,7 +8229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>366</v>
       </c>
@@ -8247,7 +8246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>367</v>
       </c>
@@ -8264,7 +8263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>368</v>
       </c>
@@ -8281,7 +8280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>369</v>
       </c>
@@ -8298,7 +8297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>370</v>
       </c>
@@ -8315,7 +8314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>371</v>
       </c>
@@ -8332,7 +8331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>372</v>
       </c>
@@ -8349,7 +8348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>373</v>
       </c>
@@ -8366,7 +8365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>374</v>
       </c>
@@ -8383,7 +8382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>375</v>
       </c>
@@ -8400,7 +8399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>376</v>
       </c>
@@ -8417,7 +8416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>377</v>
       </c>
@@ -8434,7 +8433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>378</v>
       </c>
@@ -8451,7 +8450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>379</v>
       </c>
@@ -8468,7 +8467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>380</v>
       </c>
@@ -8485,7 +8484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>381</v>
       </c>
@@ -8502,7 +8501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>382</v>
       </c>
@@ -8519,7 +8518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>383</v>
       </c>
@@ -8536,7 +8535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>384</v>
       </c>
@@ -8553,7 +8552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>385</v>
       </c>
@@ -8570,7 +8569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>386</v>
       </c>
@@ -8587,7 +8586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>387</v>
       </c>
@@ -8604,7 +8603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>388</v>
       </c>
@@ -8621,7 +8620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>389</v>
       </c>
@@ -8638,7 +8637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>390</v>
       </c>
@@ -8655,7 +8654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>391</v>
       </c>
@@ -8672,7 +8671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>392</v>
       </c>
@@ -8689,7 +8688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>393</v>
       </c>
@@ -8706,7 +8705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>394</v>
       </c>
@@ -8723,7 +8722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>395</v>
       </c>
@@ -8740,7 +8739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>396</v>
       </c>
@@ -8757,7 +8756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>397</v>
       </c>
@@ -8774,7 +8773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>398</v>
       </c>
@@ -8791,7 +8790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>399</v>
       </c>
@@ -8808,7 +8807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>400</v>
       </c>
@@ -8825,7 +8824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>401</v>
       </c>
@@ -8842,7 +8841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>402</v>
       </c>
@@ -8859,7 +8858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>403</v>
       </c>
@@ -8876,7 +8875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>404</v>
       </c>
@@ -8893,7 +8892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>405</v>
       </c>
@@ -8910,7 +8909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>406</v>
       </c>
@@ -8927,7 +8926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>407</v>
       </c>
@@ -8944,7 +8943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>408</v>
       </c>
@@ -8961,7 +8960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>409</v>
       </c>
@@ -8978,7 +8977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>410</v>
       </c>
@@ -8995,7 +8994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>411</v>
       </c>
@@ -9012,7 +9011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>412</v>
       </c>
@@ -9029,7 +9028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>413</v>
       </c>
@@ -9063,7 +9062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>415</v>
       </c>
@@ -9080,7 +9079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>416</v>
       </c>
@@ -9097,7 +9096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>417</v>
       </c>
@@ -9114,7 +9113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>418</v>
       </c>
@@ -9131,7 +9130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>419</v>
       </c>
@@ -9148,7 +9147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>420</v>
       </c>
@@ -9165,7 +9164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>421</v>
       </c>
@@ -9182,7 +9181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>422</v>
       </c>
@@ -9199,7 +9198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>423</v>
       </c>
@@ -9216,7 +9215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>424</v>
       </c>
@@ -9233,7 +9232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>425</v>
       </c>
@@ -9250,7 +9249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>426</v>
       </c>
@@ -9267,7 +9266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>427</v>
       </c>
@@ -9284,7 +9283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>428</v>
       </c>
@@ -9301,7 +9300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>429</v>
       </c>
@@ -9318,7 +9317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>430</v>
       </c>
@@ -9335,7 +9334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>431</v>
       </c>
@@ -9352,7 +9351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>432</v>
       </c>
@@ -9369,7 +9368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>433</v>
       </c>
@@ -9386,7 +9385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>434</v>
       </c>
@@ -9403,7 +9402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>435</v>
       </c>
@@ -9420,7 +9419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>436</v>
       </c>
@@ -9437,7 +9436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>437</v>
       </c>
@@ -9471,7 +9470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>439</v>
       </c>
@@ -9505,7 +9504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>441</v>
       </c>
@@ -9522,7 +9521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>442</v>
       </c>
@@ -9539,7 +9538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>443</v>
       </c>
@@ -9556,7 +9555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>444</v>
       </c>
@@ -9573,7 +9572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>445</v>
       </c>
@@ -9590,7 +9589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>446</v>
       </c>
@@ -9607,7 +9606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>447</v>
       </c>
@@ -9624,7 +9623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>448</v>
       </c>
@@ -9641,7 +9640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>213</v>
       </c>
@@ -9658,7 +9657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>449</v>
       </c>
@@ -9675,7 +9674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>450</v>
       </c>
@@ -9692,7 +9691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>451</v>
       </c>
@@ -9709,7 +9708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>452</v>
       </c>
@@ -9743,7 +9742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>455</v>
       </c>
@@ -9760,7 +9759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>457</v>
       </c>
@@ -9777,7 +9776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>458</v>
       </c>
@@ -9794,7 +9793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>459</v>
       </c>
@@ -9811,7 +9810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>460</v>
       </c>
@@ -9845,7 +9844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>177</v>
       </c>
@@ -9862,7 +9861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
         <v>178</v>
       </c>
@@ -9879,7 +9878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>179</v>
       </c>
@@ -9896,7 +9895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>180</v>
       </c>
@@ -9913,7 +9912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>181</v>
       </c>
@@ -9947,7 +9946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>183</v>
       </c>
@@ -9964,7 +9963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>184</v>
       </c>
@@ -9981,7 +9980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>185</v>
       </c>
@@ -10287,7 +10286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>203</v>
       </c>
@@ -10525,7 +10524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
         <v>462</v>
       </c>
@@ -10542,7 +10541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
         <v>463</v>
       </c>
@@ -10559,7 +10558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>464</v>
       </c>
@@ -10576,7 +10575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
         <v>465</v>
       </c>
@@ -10610,7 +10609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
         <v>467</v>
       </c>
@@ -10644,7 +10643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
         <v>231</v>
       </c>
@@ -10661,7 +10660,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="5" t="s">
         <v>231</v>
       </c>
@@ -10678,7 +10677,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
         <v>231</v>
       </c>
@@ -10696,13 +10695,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E275" xr:uid="{99C6F21F-5289-4DA5-95FE-355C3CBB6912}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>